--- a/Conditional Formatting Excel Tutorial File.xlsx
+++ b/Conditional Formatting Excel Tutorial File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Excel Series Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d8546215b3d1077/Documents/Git repository/Excel-Tutorial-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE12AABD-2C2A-4D60-B298-E861FD33474F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{EE12AABD-2C2A-4D60-B298-E861FD33474F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F4CF84C-1D47-452C-A117-8F21C6FFA3DF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>Schrute</t>
   </si>
   <si>
-    <t>7/4/2000</t>
-  </si>
-  <si>
     <t>9/8/2017</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
     <t>Supplier Relations</t>
   </si>
   <si>
-    <t>11/8/2003</t>
-  </si>
-  <si>
     <t>Meredith.Palmer@Yahoo.com</t>
   </si>
   <si>
@@ -290,6 +284,12 @@
   </si>
   <si>
     <t>Manila Folder</t>
+  </si>
+  <si>
+    <t>11/8-2003</t>
+  </si>
+  <si>
+    <t>7-4/2000</t>
   </si>
 </sst>
 </file>
@@ -333,7 +333,38 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -646,25 +677,25 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -699,7 +730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -710,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -734,7 +765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -745,7 +776,7 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -769,7 +800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -780,7 +811,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>29</v>
@@ -795,27 +826,27 @@
         <v>63000</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>31</v>
@@ -824,33 +855,33 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <v>47000</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>32</v>
@@ -859,33 +890,33 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>50000</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E7">
         <v>35</v>
@@ -894,33 +925,33 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>65000</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
       <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8">
         <v>32</v>
@@ -929,33 +960,33 @@
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8">
         <v>41000</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E9">
         <v>38</v>
@@ -970,27 +1001,27 @@
         <v>48000</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10">
         <v>31</v>
@@ -999,35 +1030,61 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>42000</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" t="str">
         <f t="shared" ref="D22:D23" si="0">CONCATENATE(B12," ",C12)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J2:J10">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{D7761685-5F03-4BCE-9DA9-8E7112DDC871}">
+            <xm:f>NOT(ISERROR(SEARCH("-",I2)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I2:I10</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1036,55 +1093,55 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>76</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>77</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>78</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>79</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>80</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>81</v>
       </c>
-      <c r="L1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2">
         <v>450</v>
@@ -1123,9 +1180,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>75</v>
@@ -1164,9 +1221,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -1206,6 +1263,48 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:M2">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:M4">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5ArrowsGray">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{4C5F3242-59F5-408F-9FCD-23B026B6C03A}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B3:M3</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Conditional Formatting Excel Tutorial File.xlsx
+++ b/Conditional Formatting Excel Tutorial File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d8546215b3d1077/Documents/Git repository/Excel-Tutorial-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{EE12AABD-2C2A-4D60-B298-E861FD33474F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F4CF84C-1D47-452C-A117-8F21C6FFA3DF}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{EE12AABD-2C2A-4D60-B298-E861FD33474F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1EE3D29-39A2-4D51-A2BC-912D6248339E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
   </bookViews>
@@ -333,7 +333,77 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -677,7 +747,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E10"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,9 +757,9 @@
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="59.5703125" customWidth="1"/>
@@ -1059,14 +1129,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J10">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E10">
+    <cfRule type="aboveAverage" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H10">
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{D7761685-5F03-4BCE-9DA9-8E7112DDC871}">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{D7761685-5F03-4BCE-9DA9-8E7112DDC871}">
             <xm:f>NOT(ISERROR(SEARCH("-",I2)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
